--- a/databases/ATA-28_Fuel.xlsx
+++ b/databases/ATA-28_Fuel.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alicia\Work\Git\brightway\databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F07928E-4B23-4C95-91CC-1542D8770A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATA-28_Fuel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -181,14 +187,14 @@
     <t>database</t>
   </si>
   <si>
-    <t>production</t>
+    <t>materials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +240,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -280,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,9 +326,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,6 +378,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,19 +571,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -541,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -549,7 +606,7 @@
         <v>3981.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -557,7 +614,7 @@
         <v>4259.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -565,7 +622,7 @@
         <v>373.71</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -573,7 +630,7 @@
         <v>433.48</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -581,15 +638,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>19.022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>19.021999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -597,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -605,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -613,7 +670,7 @@
         <v>271.31</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -621,23 +678,23 @@
         <v>366.27</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>891.5700000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>891.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>8.610799999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>8.6107999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -645,7 +702,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -653,7 +710,7 @@
         <v>853.21</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -661,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -669,7 +726,7 @@
         <v>404.57</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -677,7 +734,7 @@
         <v>58.189</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -685,7 +742,7 @@
         <v>3003.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -693,15 +750,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>66.91800000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>66.918000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -709,7 +766,7 @@
         <v>163.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -717,15 +774,15 @@
         <v>330.69</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>15.591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>15.590999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -733,15 +790,15 @@
         <v>342.72</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>718.1799999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>718.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -749,15 +806,15 @@
         <v>913.24</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>274.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>274.52999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -765,7 +822,7 @@
         <v>715.08</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -773,7 +830,7 @@
         <v>875.78</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -781,7 +838,7 @@
         <v>181.45</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -789,7 +846,7 @@
         <v>5074.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -797,7 +854,7 @@
         <v>2710.2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -805,15 +862,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>398.9865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>398.98649999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -821,7 +878,7 @@
         <v>2311.2001</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -829,7 +886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -837,7 +894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -845,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -853,7 +910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -861,7 +918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -869,7 +926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -877,7 +934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -885,12 +942,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -913,7 +970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>43</v>
       </c>
